--- a/MasterFileLocations.xlsx
+++ b/MasterFileLocations.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-35660" yWindow="-2360" windowWidth="32700" windowHeight="18540" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="-4140" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
   <si>
     <t>Spreadsheet Name</t>
   </si>
@@ -214,6 +214,39 @@
   </si>
   <si>
     <t>edited to account for new method of calculating CPUE</t>
+  </si>
+  <si>
+    <t>DeltaLogNorm_SST_yoy_FIM_Ehedits.R</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>spp_comb_5_13_EG_2bays_yoy_2015_Ehedits.sas</t>
+  </si>
+  <si>
+    <t>FWRI Computer    Scratch&gt;Elizabeth Herdter&gt; R programs</t>
+  </si>
+  <si>
+    <t>FWRI Computer   Scratch&gt;Elizabeth Herdter&gt;R programs</t>
+  </si>
+  <si>
+    <t>Created by FWRI- used to subste the FIM program data when looking at a single species or two species.</t>
+  </si>
+  <si>
+    <t>Outputs a CSV that includes sample number, number positives, the LSMeans, SD, intervals, CV and Nominal means etc     i.e. index_tb_bay_yoy.csv, index_tb_riv_yoy.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sas file </t>
+  </si>
+  <si>
+    <t>FWRI Computer Scratch&gt;Elizabeth Herdter &gt;SAS data sets&gt;FIMData</t>
+  </si>
+  <si>
+    <t>FWRI Computer Scratch&gt;Elizabeth Herdter&gt; SAS data sets&gt;FIMData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses FIM SAS data produced from the spp_comb sas program above to produce indices of abundance, plots of model fits and residuals. Created by D. Chagaris. My edits include minor things such as a different command for importing SAS files and also estuary names and working directories  ****** REQUIRES cpuefunctions.r to be in same working directory to run... </t>
   </si>
 </sst>
 </file>
@@ -264,7 +297,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -316,6 +349,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF4EA25"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -373,7 +418,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -394,9 +439,6 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -451,6 +493,27 @@
     </xf>
     <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="27">
@@ -809,24 +872,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J26"/>
+  <dimension ref="A1:J28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="9" customWidth="1"/>
-    <col min="2" max="2" width="20.1640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="9" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="9" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="54.6640625" style="9" customWidth="1"/>
-    <col min="8" max="8" width="45.1640625" style="9" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="9"/>
-    <col min="10" max="10" width="34" style="9" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="9"/>
+    <col min="1" max="1" width="28.6640625" style="8" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="8" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" style="8" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="54.6640625" style="8" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" style="8" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="8"/>
+    <col min="10" max="10" width="34" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="10.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="7" customFormat="1">
@@ -1000,198 +1063,244 @@
         <v>48</v>
       </c>
     </row>
-    <row r="13" spans="1:10" s="11" customFormat="1" ht="45">
-      <c r="A13" s="10" t="s">
+    <row r="13" spans="1:10" s="10" customFormat="1" ht="45">
+      <c r="A13" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="E13" s="12">
+      <c r="E13" s="11">
         <v>42305</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:10" s="11" customFormat="1" ht="45">
-      <c r="A14" s="10"/>
-      <c r="E14" s="12">
+    <row r="14" spans="1:10" s="10" customFormat="1" ht="45">
+      <c r="A14" s="9"/>
+      <c r="E14" s="11">
         <v>42311</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:10" s="11" customFormat="1">
-      <c r="A15" s="10"/>
-      <c r="E15" s="12">
+    <row r="15" spans="1:10" s="10" customFormat="1">
+      <c r="A15" s="9"/>
+      <c r="E15" s="11">
         <v>42319</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:10" s="11" customFormat="1" ht="120">
-      <c r="A16" s="10"/>
-      <c r="E16" s="12">
+    <row r="16" spans="1:10" s="10" customFormat="1" ht="120">
+      <c r="A16" s="9"/>
+      <c r="E16" s="11">
         <v>42345</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="H16" s="11" t="s">
+      <c r="H16" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="J16" s="11" t="s">
+      <c r="J16" s="10" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="20" customFormat="1" ht="105">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:10" s="19" customFormat="1" ht="105">
+      <c r="A17" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="20" t="s">
+      <c r="D17" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="E17" s="21">
+      <c r="E17" s="20">
         <v>42306</v>
       </c>
-      <c r="F17" s="20" t="s">
+      <c r="F17" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="G17" s="20" t="s">
+      <c r="G17" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="H17" s="20" t="s">
+      <c r="H17" s="19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" ht="60">
-      <c r="A18" s="13" t="s">
+    <row r="18" spans="1:10" s="13" customFormat="1" ht="60">
+      <c r="A18" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D18" s="14" t="s">
+      <c r="D18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="15">
+      <c r="E18" s="14">
         <v>42313</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="17" customFormat="1" ht="45">
-      <c r="A19" s="16" t="s">
+    <row r="19" spans="1:10" s="16" customFormat="1" ht="45">
+      <c r="A19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D19" s="17" t="s">
+      <c r="D19" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="18">
+      <c r="E19" s="17">
         <v>42313</v>
       </c>
-      <c r="F19" s="17" t="s">
+      <c r="F19" s="16" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="17" customFormat="1" ht="30">
-      <c r="E20" s="18">
+    <row r="20" spans="1:10" s="16" customFormat="1" ht="30">
+      <c r="E20" s="17">
         <v>42318</v>
       </c>
-      <c r="F20" s="17" t="s">
+      <c r="F20" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="G20" s="17" t="s">
+      <c r="G20" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="H20" s="17" t="s">
+      <c r="H20" s="16" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="17" customFormat="1">
-      <c r="E21" s="18">
+    <row r="21" spans="1:10" s="16" customFormat="1">
+      <c r="E21" s="17">
         <v>42375</v>
       </c>
-      <c r="F21" s="17" t="s">
+      <c r="F21" s="16" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="23" customFormat="1" ht="90">
-      <c r="A22" s="22" t="s">
+    <row r="22" spans="1:10" s="22" customFormat="1" ht="90">
+      <c r="A22" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="B22" s="23" t="s">
+      <c r="B22" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="D22" s="23" t="s">
+      <c r="D22" s="22" t="s">
         <v>56</v>
       </c>
-      <c r="E22" s="24">
+      <c r="E22" s="23">
         <v>42345</v>
       </c>
-      <c r="J22" s="23" t="s">
+      <c r="J22" s="22" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="23" customFormat="1" ht="30">
-      <c r="E23" s="24">
+    <row r="23" spans="1:10" s="22" customFormat="1" ht="30">
+      <c r="E23" s="23">
         <v>42346</v>
       </c>
-      <c r="F23" s="23" t="s">
+      <c r="F23" s="22" t="s">
         <v>58</v>
       </c>
-      <c r="G23" s="23" t="s">
+      <c r="G23" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="H23" s="23" t="s">
+      <c r="H23" s="22" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="23" customFormat="1" ht="30">
-      <c r="E24" s="24">
+    <row r="24" spans="1:10" s="22" customFormat="1" ht="30">
+      <c r="E24" s="23">
         <v>42347</v>
       </c>
-      <c r="F24" s="23" t="s">
+      <c r="F24" s="22" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="26" customFormat="1" ht="45">
-      <c r="A25" s="25" t="s">
+    <row r="25" spans="1:10" s="25" customFormat="1" ht="45">
+      <c r="A25" s="24" t="s">
         <v>59</v>
       </c>
-      <c r="B25" s="26" t="s">
+      <c r="B25" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D25" s="26" t="s">
+      <c r="D25" s="25" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="26">
         <v>42346</v>
       </c>
-      <c r="F25" s="26" t="s">
+      <c r="F25" s="25" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="26" t="s">
+      <c r="H25" s="25" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="8" customFormat="1"/>
+    <row r="26" spans="1:10" s="25" customFormat="1">
+      <c r="A26" s="24"/>
+      <c r="E26" s="26"/>
+    </row>
+    <row r="27" spans="1:10" s="28" customFormat="1" ht="45">
+      <c r="A27" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="D27" s="28" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="29">
+        <v>42491</v>
+      </c>
+      <c r="G27" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="H27" s="28" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" s="32" customFormat="1" ht="165">
+      <c r="A28" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D28" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="E28" s="33">
+        <v>42491</v>
+      </c>
+      <c r="G28" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="H28" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="32" t="s">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>

--- a/MasterFileLocations.xlsx
+++ b/MasterFileLocations.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25306"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4140" windowWidth="38400" windowHeight="21600" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="R programs " sheetId="1" r:id="rId1"/>
+    <sheet name="Important Excel Csv Files" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="101">
   <si>
     <t>Spreadsheet Name</t>
   </si>
@@ -135,9 +136,6 @@
     <t>got new things from FWRI so was able to correctly stratify by stratums; merged catch files with physical diles to subset each zone by stratum (shore, offshore veg, offshore non veg), make new data frames AP_A_OV (Appalachicola, zone A, offshore vegetation)</t>
   </si>
   <si>
-    <t xml:space="preserve">To determine the medoid of each zone in estuary </t>
-  </si>
-  <si>
     <t>Summarized by Zone.R</t>
   </si>
   <si>
@@ -234,35 +232,105 @@
     <t>Created by FWRI- used to subste the FIM program data when looking at a single species or two species.</t>
   </si>
   <si>
-    <t>Outputs a CSV that includes sample number, number positives, the LSMeans, SD, intervals, CV and Nominal means etc     i.e. index_tb_bay_yoy.csv, index_tb_riv_yoy.csv</t>
-  </si>
-  <si>
     <t xml:space="preserve">Sas file </t>
   </si>
   <si>
     <t>FWRI Computer Scratch&gt;Elizabeth Herdter &gt;SAS data sets&gt;FIMData</t>
   </si>
   <si>
-    <t>FWRI Computer Scratch&gt;Elizabeth Herdter&gt; SAS data sets&gt;FIMData</t>
-  </si>
-  <si>
     <t xml:space="preserve">Uses FIM SAS data produced from the spp_comb sas program above to produce indices of abundance, plots of model fits and residuals. Created by D. Chagaris. My edits include minor things such as a different command for importing SAS files and also estuary names and working directories  ****** REQUIRES cpuefunctions.r to be in same working directory to run... </t>
+  </si>
+  <si>
+    <t>FWRI Computer Scratch&gt;Elizabeth Herdter&gt; SAS data sets&gt;FIMData                GitHub&gt;Seatrout&gt;Data&gt;Indices&gt;DeltaLogNormal Indices and Diagnostics</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Secondary:  GitHub&gt;Seatrout</t>
+  </si>
+  <si>
+    <t>Outputs a CSV with abundance indices. Includes sample number, number positives, the LSMeans, SD, intervals, CV and Nominal means etc     i.e. index_tb_bay_yoy.csv, index_tb_riv_yoy.csv</t>
+  </si>
+  <si>
+    <t>Scrapped? In favor of what?</t>
+  </si>
+  <si>
+    <t>Yes.     Autcorrelation and correlation with DeltaLogNorm Indices.R</t>
+  </si>
+  <si>
+    <t>Autocorrelation and correlation with DeltaLogNorm Indices.R</t>
+  </si>
+  <si>
+    <t>GitHub&gt;Seatrout</t>
+  </si>
+  <si>
+    <t>tests interseries correlation and correlations with indices</t>
+  </si>
+  <si>
+    <t>using new FIM SAS data which came from the SAS program to calculate medoid;determine great circle distance between each estuary; plotted RHO vs great circle distance</t>
+  </si>
+  <si>
+    <t>To determine the medoid of each zone in estuary ;to plot rho vs great circle distance; to estimate distance decay functions and generate bootstrapped values for estimated parameters</t>
+  </si>
+  <si>
+    <t>compared nls fits to two models with anova and F test, weighted nls by sample number in common</t>
+  </si>
+  <si>
+    <t>unwrapped matrices of p, n and rho from the correlation procedure; appended them together to be cnombined with distances for use in Medoid.R</t>
+  </si>
+  <si>
+    <t>rho_P_vec.csv</t>
+  </si>
+  <si>
+    <t>'~/Desktop/Github Repo/Seatrout/Data/Exported R Dataframes/rho_P_vector.csv'</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>**** NAME CHANGE ** NEW NAME=  Medoid_GC_NLSfit_plot.R</t>
+  </si>
+  <si>
+    <t>Github&gt;Seatrout&gt;Data</t>
+  </si>
+  <si>
+    <t>Created 10/10/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">created from the SST_8615 access database that was created by FWRI (located in SSTROUT&gt;Otoliths 2015). My version of this query includes the Bay from where the otoliths were taken. Icludes Age length data from FDM, FBI (fishbio?), FIM, NMF, AQH and TIP. </t>
+  </si>
+  <si>
+    <t>ALK with Bay.xlsx (.csv)</t>
+  </si>
+  <si>
+    <t>ALK_analysis.R</t>
+  </si>
+  <si>
+    <t>Date of creation 10/10/16</t>
+  </si>
+  <si>
+    <t>ALK_analysis_Stari_method.R</t>
+  </si>
+  <si>
+    <t>Loads the age and length data from the otolith database at FWRI. Produces the ALK and tests distributions with Stari et al. method. Unfortunately the code is fucked so I don't think it will work. Defaulting to the method in ALK_analysis.R</t>
+  </si>
+  <si>
+    <t>Date of creation 10/11/16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads the the age and length data from the otolith database at FWRI. Tests them using methods described in Ogle (GLM and Likelihood ratio tests). Does Bay to Bay comparisons with Likelihood tests and then produces plots of the distributions. Calculates proportional age distribution for each bay. Determines mean length at age for each bay and produces a plot of length vs age with the mean age on top. Also tests the length-frequency distributions of the MRFSS and MRIP data and produces plots. </t>
+  </si>
+  <si>
+    <t>Growth_curve_analysis.R</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loads otolith database and performs some growth curve analysis. Tests a bunch of nested models for each bay to bay comparison to determine which parameters are actually different between each bay. Based on Ogles description of likelihood testing of nested models. Also includes an example of testing with AIC. </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -287,17 +355,30 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -364,6 +445,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF71E885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -389,134 +476,149 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="27">
+  <cellStyleXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="5" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="6" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="4" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="27">
+  <cellStyles count="29">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -530,6 +632,7 @@
     <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -543,6 +646,7 @@
     <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -872,433 +976,544 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J28"/>
+  <dimension ref="A1:K35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="B32" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" style="8" customWidth="1"/>
-    <col min="2" max="2" width="22.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="27.5" style="8" customWidth="1"/>
-    <col min="4" max="4" width="32.6640625" style="8" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="8" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="54.6640625" style="8" customWidth="1"/>
-    <col min="8" max="8" width="45.1640625" style="8" customWidth="1"/>
-    <col min="9" max="9" width="10.83203125" style="8"/>
-    <col min="10" max="10" width="34" style="8" customWidth="1"/>
-    <col min="11" max="16384" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="76.1640625" style="18" customWidth="1"/>
+    <col min="2" max="2" width="22.33203125" style="18" customWidth="1"/>
+    <col min="3" max="3" width="27.5" style="18" customWidth="1"/>
+    <col min="4" max="4" width="56" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.5" style="18" customWidth="1"/>
+    <col min="6" max="6" width="54.6640625" style="38" customWidth="1"/>
+    <col min="7" max="7" width="54.6640625" style="18" customWidth="1"/>
+    <col min="8" max="8" width="45.1640625" style="18" customWidth="1"/>
+    <col min="9" max="9" width="10.83203125" style="18"/>
+    <col min="10" max="10" width="34" style="18" customWidth="1"/>
+    <col min="11" max="11" width="24.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="7" customFormat="1">
-      <c r="A1" s="7" t="s">
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J1" s="7" t="s">
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" s="3" customFormat="1" ht="100">
+      <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="19">
+        <v>42265</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" ht="80">
+      <c r="E3" s="19">
+        <v>42269</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="60">
+      <c r="E4" s="19">
+        <v>42284</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" s="3" customFormat="1" ht="60">
+      <c r="E5" s="19">
+        <v>42303</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" s="3" customFormat="1" ht="60">
+      <c r="E6" s="19">
+        <v>42304</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" s="3" customFormat="1" ht="60">
+      <c r="E7" s="19">
+        <v>42305</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" s="3" customFormat="1" ht="120">
+      <c r="E8" s="19">
+        <v>42312</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" s="3" customFormat="1" ht="80">
+      <c r="E9" s="19">
+        <v>42318</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="5" customFormat="1" ht="100">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E10" s="20">
+        <v>42304</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="5" customFormat="1">
+      <c r="E11" s="20">
+        <v>42305</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="5" customFormat="1" ht="40">
+      <c r="E12" s="20">
+        <v>42319</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="21" customFormat="1" ht="80">
+      <c r="A13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="22">
+        <v>42305</v>
+      </c>
+      <c r="F13" s="21" t="s">
+        <v>26</v>
+      </c>
+      <c r="K13" s="21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="21" customFormat="1" ht="80">
+      <c r="A14" s="6"/>
+      <c r="E14" s="22">
+        <v>42311</v>
+      </c>
+      <c r="F14" s="21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="21" customFormat="1" ht="40">
+      <c r="A15" s="6"/>
+      <c r="E15" s="22">
+        <v>42319</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="21" customFormat="1" ht="240">
+      <c r="A16" s="6"/>
+      <c r="E16" s="22">
+        <v>42345</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" s="21" t="s">
+        <v>51</v>
+      </c>
+      <c r="H16" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="J16" s="21" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:10" s="1" customFormat="1" ht="45">
-      <c r="A2" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="2">
-        <v>42265</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
+    <row r="17" spans="1:10" s="23" customFormat="1" ht="160">
+      <c r="A17" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E17" s="24">
+        <v>42306</v>
+      </c>
+      <c r="F17" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="G17" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="23" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="23" customFormat="1" ht="80">
+      <c r="A18" s="7"/>
+      <c r="E18" s="24">
+        <v>42522</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I18" s="23" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:10" s="1" customFormat="1" ht="45">
-      <c r="E3" s="2">
-        <v>42269</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" s="1" customFormat="1" ht="30">
-      <c r="E4" s="2">
-        <v>42284</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" s="1" customFormat="1" ht="45">
-      <c r="E5" s="2">
-        <v>42303</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" s="1" customFormat="1" ht="45">
-      <c r="E6" s="2">
-        <v>42304</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H6" s="1" t="s">
+    <row r="19" spans="1:10" s="23" customFormat="1" ht="60">
+      <c r="A19" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E19" s="24">
+        <v>42523</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" s="25" customFormat="1" ht="60">
+      <c r="A20" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>39</v>
+      </c>
+      <c r="E20" s="26">
+        <v>42313</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" s="10" customFormat="1" ht="40">
+      <c r="A21" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="27">
+        <v>42313</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="10" customFormat="1" ht="60">
+      <c r="E22" s="27">
+        <v>42318</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="10" customFormat="1" ht="40">
+      <c r="E23" s="27">
+        <v>42375</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" s="12" customFormat="1" ht="140">
+      <c r="A24" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D24" s="12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="28">
+        <v>42345</v>
+      </c>
+      <c r="J24" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" s="12" customFormat="1" ht="60">
+      <c r="E25" s="28">
+        <v>42346</v>
+      </c>
+      <c r="F25" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G25" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="H25" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="1" customFormat="1" ht="45">
-      <c r="E7" s="2">
-        <v>42305</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="H7" s="1" t="s">
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1" ht="40">
+      <c r="E26" s="28">
+        <v>42347</v>
+      </c>
+      <c r="F26" s="12" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" s="29" customFormat="1" ht="80">
+      <c r="A27" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="30">
+        <v>42346</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="H27" s="29" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:10" s="1" customFormat="1" ht="75">
-      <c r="E8" s="2">
-        <v>42312</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" s="1" customFormat="1" ht="45">
-      <c r="E9" s="2">
-        <v>42318</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" s="3" customFormat="1" ht="60">
-      <c r="A10" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" s="4">
-        <v>42304</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" s="3" customFormat="1">
-      <c r="E11" s="4">
-        <v>42305</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="3" customFormat="1" ht="30">
-      <c r="E12" s="4">
-        <v>42319</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" s="10" customFormat="1" ht="45">
-      <c r="A13" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="11">
-        <v>42305</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" s="10" customFormat="1" ht="45">
-      <c r="A14" s="9"/>
-      <c r="E14" s="11">
-        <v>42311</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" s="10" customFormat="1">
-      <c r="A15" s="9"/>
-      <c r="E15" s="11">
-        <v>42319</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" s="10" customFormat="1" ht="120">
-      <c r="A16" s="9"/>
-      <c r="E16" s="11">
-        <v>42345</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="G16" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="H16" s="10" t="s">
-        <v>51</v>
-      </c>
-      <c r="J16" s="10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" s="19" customFormat="1" ht="105">
-      <c r="A17" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="20">
-        <v>42306</v>
-      </c>
-      <c r="F17" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="G17" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H17" s="19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" s="13" customFormat="1" ht="60">
-      <c r="A18" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="14">
-        <v>42313</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="16" customFormat="1" ht="45">
-      <c r="A19" s="15" t="s">
-        <v>42</v>
-      </c>
-      <c r="B19" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="17">
-        <v>42313</v>
-      </c>
-      <c r="F19" s="16" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" s="16" customFormat="1" ht="30">
-      <c r="E20" s="17">
-        <v>42318</v>
-      </c>
-      <c r="F20" s="16" t="s">
-        <v>46</v>
-      </c>
-      <c r="G20" s="16" t="s">
-        <v>44</v>
-      </c>
-      <c r="H20" s="16" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" s="16" customFormat="1">
-      <c r="E21" s="17">
-        <v>42375</v>
-      </c>
-      <c r="F21" s="16" t="s">
+    <row r="28" spans="1:10" s="29" customFormat="1">
+      <c r="A28" s="13"/>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:10" s="31" customFormat="1" ht="80">
+      <c r="A29" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="31" t="s">
+        <v>69</v>
+      </c>
+      <c r="E29" s="32">
+        <v>42491</v>
+      </c>
+      <c r="G29" s="31" t="s">
+        <v>70</v>
+      </c>
+      <c r="H29" s="31" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="33" customFormat="1" ht="160">
+      <c r="A30" s="15" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" s="22" customFormat="1" ht="90">
-      <c r="A22" s="21" t="s">
-        <v>55</v>
-      </c>
-      <c r="B22" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="22" t="s">
-        <v>56</v>
-      </c>
-      <c r="E22" s="23">
-        <v>42345</v>
-      </c>
-      <c r="J22" s="22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" s="22" customFormat="1" ht="30">
-      <c r="E23" s="23">
-        <v>42346</v>
-      </c>
-      <c r="F23" s="22" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="H23" s="22" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" s="22" customFormat="1" ht="30">
-      <c r="E24" s="23">
-        <v>42347</v>
-      </c>
-      <c r="F24" s="22" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" s="25" customFormat="1" ht="45">
-      <c r="A25" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="B25" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="E25" s="26">
-        <v>42346</v>
-      </c>
-      <c r="F25" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="H25" s="25" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" s="25" customFormat="1">
-      <c r="A26" s="24"/>
-      <c r="E26" s="26"/>
-    </row>
-    <row r="27" spans="1:10" s="28" customFormat="1" ht="45">
-      <c r="A27" s="27" t="s">
+      <c r="B30" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="D27" s="28" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="29">
+      <c r="C30" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="34">
         <v>42491</v>
       </c>
-      <c r="G27" s="28" t="s">
-        <v>72</v>
-      </c>
-      <c r="H27" s="28" t="s">
+      <c r="G30" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="H30" s="33" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="28" spans="1:10" s="32" customFormat="1" ht="165">
-      <c r="A28" s="30" t="s">
+      <c r="I30" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="D28" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="E28" s="33">
-        <v>42491</v>
-      </c>
-      <c r="G28" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="H28" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="I28" s="32" t="s">
-        <v>66</v>
+    </row>
+    <row r="31" spans="1:10" s="17" customFormat="1">
+      <c r="A31" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E31" s="35">
+        <v>42514</v>
+      </c>
+      <c r="F31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" s="17" customFormat="1" ht="80">
+      <c r="E32" s="35">
+        <v>42522</v>
+      </c>
+      <c r="F32" s="36" t="s">
+        <v>84</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="H32" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="220">
+      <c r="A33" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D33" s="38" t="s">
+        <v>98</v>
+      </c>
+      <c r="E33" s="38" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="120">
+      <c r="A34" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" s="38" t="s">
+        <v>96</v>
+      </c>
+      <c r="E34" s="38" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="140">
+      <c r="A35" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D35" s="38" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
@@ -1310,4 +1525,78 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="27.83203125" defaultRowHeight="20" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="3" width="27.83203125" style="39"/>
+    <col min="4" max="4" width="45.6640625" style="39" customWidth="1"/>
+    <col min="5" max="16384" width="27.83203125" style="39"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" s="1" customFormat="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="140">
+      <c r="A2" s="39" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="39" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="40" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="39" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>